--- a/data/unaData.xlsx
+++ b/data/unaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriaminano/Documents/GitHub/Limpieza_Datos/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3180C897-50DD-9347-A921-F191931547F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A3DC04-3BF9-4D47-AECA-AC991C7FFEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{50F06A85-BB98-0F4F-B6F3-79EA9AFF283C}"/>
   </bookViews>
@@ -382,12 +382,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C205F539-ECAD-BA4F-B00D-D425BE0AD174}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>